--- a/biology/Zoologie/Hirtobrasilianus/Hirtobrasilianus.xlsx
+++ b/biology/Zoologie/Hirtobrasilianus/Hirtobrasilianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirtobrasilianus est un genre d'insectes coléoptères de la tribu des Cerambycini (sous-famille des Cerambycinae, famille des Cerambycidae).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (6 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (6 février 2024) :
 Hirtobrasilianus matogrossensis (Fragoso, 1971)
 Hirtobrasilianus seabrai (Fragoso &amp; Tavakilian, 1985)
 Hirtobrasilianus villiersi (Fragoso &amp; Tavakilian, 1985)</t>
@@ -544,11 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Hirtobrasilianus a été créé en 1985 par les entomologistes Sergio A. Fragoso (d) et Gérard L. Tavakilian (d)[1] et ce initialement au rang de sous-genre du genre Brasilianus.
-Synonymie
-Brasilianus (Hirtobrasilianus) (Fragoso &amp; Tavakilian, 1985)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hirtobrasilianus a été créé en 1985 par les entomologistes Sergio A. Fragoso (d) et Gérard L. Tavakilian (d) et ce initialement au rang de sous-genre du genre Brasilianus.
+</t>
         </is>
       </c>
     </row>
@@ -573,10 +588,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brasilianus (Hirtobrasilianus) (Fragoso &amp; Tavakilian, 1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hirtobrasilianus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hirtobrasilianus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>S. A. Fragoso et G. L. Tavakilian, « Hirtobrasilianus, nouveau sous–genre de Brasilianus Jakobson, 1924 (Coleoptera, Cerambycidae, Cerambycini) », L'Entomologiste, Paris, vol. 45, no 1,‎ 1985, p. 229–240 (ISSN 0013-8886).</t>
         </is>
